--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -272,63 +272,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,14 +345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="3" sqref="C5:D6 C12:C15 D12:D16 D3"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,93 +410,84 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -559,176 +550,159 @@
       </c>
     </row>
     <row r="11" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>1</v>
+      <c r="A11" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="K11" s="0"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="K12" s="0"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>20</v>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="6"/>
-    </row>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -267,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,22 +281,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,15 +309,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,7 +345,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,127 +365,121 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -509,196 +496,192 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" s="10" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="0"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="0"/>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="0"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="0"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>41</v>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Generated code prefix</t>
   </si>
   <si>
+    <t xml:space="preserve">Unique Subcodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERSON</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t xml:space="preserve">FALSE</t>
   </si>
   <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-11 17:23:44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandatory</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -152,9 +161,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -264,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,6 +299,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,11 +327,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +363,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,20 +398,30 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,102 +429,102 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" s="10" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -505,183 +533,193 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="K9" s="0"/>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="0"/>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" s="12" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="J11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="F13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="H13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="B14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="F14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-sample-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivalued</t>
   </si>
   <si>
     <t xml:space="preserve">FIRST_NAME</t>
@@ -274,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,7 +310,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,17 +367,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -424,7 +435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -455,10 +466,13 @@
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -466,65 +480,72 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" s="12" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A7" s="11"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" s="14" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" s="12" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -533,10 +554,10 @@
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -545,22 +566,22 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>28</v>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
+      <c r="D10" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
@@ -568,158 +589,171 @@
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" s="12" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="F12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="H13" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="K13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="F14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="H14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>22</v>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>43</v>
+      <c r="K16" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
